--- a/Report 1 Resources/Octals.xlsx
+++ b/Report 1 Resources/Octals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Infrastructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Infrastructure\Report 1 Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4D13A5-9F6E-4458-A688-CCEC4AB752DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917ADEA-B30E-450B-963B-F90477A3C134}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{6AA580D0-45AB-4D71-97BF-311BEC008338}"/>
   </bookViews>
@@ -204,6 +204,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,15 +220,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,7 +539,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,21 +549,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -671,21 +671,21 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>770</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="9">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="E5" s="12">
+        <v>770</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="12">
         <v>750</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="9">
-        <v>750</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Report 1 Resources/Octals.xlsx
+++ b/Report 1 Resources/Octals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Infrastructure\Report 1 Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917ADEA-B30E-450B-963B-F90477A3C134}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB93A59E-C65F-48B8-BF11-E89DB4ED0339}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{6AA580D0-45AB-4D71-97BF-311BEC008338}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AA580D0-45AB-4D71-97BF-311BEC008338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
